--- a/data/hotels_by_city/Houston/Houston_shard_254.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_254.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d10758543-Reviews-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hampton-Inn-Suites-Houston-Atascocita.h15997661.Hotel-Information?chkin=7%2F16%2F2018&amp;chkout=7%2F17%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530981349780&amp;cancellable=false&amp;regionId=178162&amp;vip=false&amp;c=9e965f08-55b7-4329-aeea-b9c087e277a3&amp;mctc=9&amp;exp_dp=99&amp;exp_ts=1530981357130&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1110 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r597128445-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>10758543</t>
+  </si>
+  <si>
+    <t>597128445</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Quality and Friendliness</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay.  It was clean, quiet, and friendly.  The air conditioner worked good and the TV has Directv - so we knew which channels we liked.  The beds were comfortable and the bathrooms were clean.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r596818779-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>596818779</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The hotel was wonderful . The room was clean and comfortable. The internet worked well. The breakfast was not good. It needed more variety but the service was great! The staff was professional. I will definitely return!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r591652033-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>591652033</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Relief from the heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our air conditioning was out at our house so we stayed here last minute. The hotel is new, staff very friendly and welcoming. Everything was great! Clean rooms, quiet atmosphere. The front desk staff was very nice and went beyond what your normally get now a days. Great stay overall! </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r586822462-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>586822462</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Local room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New hotel in a good location off 1960 east. Quality and well appointed rooms. All clean and good lighting  in rooms. Staff was friendly and courtesy.  Quite location close to restrurants and shopping.  Will stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r586035539-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>586035539</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Joy D</t>
+  </si>
+  <si>
+    <t>The hotel was very clean.The continental breakfast could be improved, but it was still great. The only negative thing about my stay was it wasn't any bottled water in the room. The hotel is in a great location. You are surrounded by many restaurants and shopping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r580879172-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>580879172</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Gateway Hills Golf Trip</t>
+  </si>
+  <si>
+    <t>Took A Group on A Golf Trip To Tour 18 and Stayed Here Over night. The Staff From The Time We Checked In To The Time We Left Was Very Friendly and Helpful. I Highly Recommend Staying Here. A+++ Service From Beginning To End.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r561563019-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>561563019</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Very clean and nice rooms!</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is new, I think and so very chic and nice. I loved the layout. It is just like the Hampton Inn in Pigeon Forge, TN which is one of my favorites. The rooms are very comfortable and they have Direct TV.... thank you for having Fox News! Loved everything, but you can improve on the breakfast by adding more healthy option. That's just a suggestion.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r559927515-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>559927515</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>In town for business and a friend recommended this hotel, best choice. Clean room and the bathroom was spotless. Price point for the room was very competitive, staff extremely friendly, I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r559875406-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>559875406</t>
+  </si>
+  <si>
+    <t>Humble Trip</t>
+  </si>
+  <si>
+    <t>Hotel is approximately 1.5 years old, but looks brand new. Well maintained. Front desk staff member, Courtney was extremely pleasant. Clean rooms. Nearby to restaurants. Easy access to highway 59 and airport.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r555557517-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>555557517</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Haveaniceday</t>
+  </si>
+  <si>
+    <t>Friendly staff, awesome rooms and great breakfast! The rooms were new and freshly cleaned. I enjoyed my two week business trip here in Humble, TX and appreciate your kind staff that assisted with adding additional days to my reservation due to weather conditions. This is one of the nicest hotels and I would highly recommend staying here. On a Wednesday night a basketball team arrived at approximately 8:00 pm and reserved 4-6 rooms beside of my room and on this floor. This was not good as I know teenagers like to have a good time but it was overly noisy and no adult supervision as I saw or could hear. The hotel was kind and attempted to speak with the adults but I asked to be moved the next day as the manager gave me a nice suite on the fifth floor. I was glad I moved and will request this room in upcoming visits. Room 502. Thank you all and have a pleasant travel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff, awesome rooms and great breakfast! The rooms were new and freshly cleaned. I enjoyed my two week business trip here in Humble, TX and appreciate your kind staff that assisted with adding additional days to my reservation due to weather conditions. This is one of the nicest hotels and I would highly recommend staying here. On a Wednesday night a basketball team arrived at approximately 8:00 pm and reserved 4-6 rooms beside of my room and on this floor. This was not good as I know teenagers like to have a good time but it was overly noisy and no adult supervision as I saw or could hear. The hotel was kind and attempted to speak with the adults but I asked to be moved the next day as the manager gave me a nice suite on the fifth floor. I was glad I moved and will request this room in upcoming visits. Room 502. Thank you all and have a pleasant travel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r555236535-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>555236535</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Bathroom flooded as they put me in a handicap room without telling me, and the floor was flat and shower sprayed into the entire bathroom and out into the bedroom. The internet didn't work. Don't stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Bathroom flooded as they put me in a handicap room without telling me, and the floor was flat and shower sprayed into the entire bathroom and out into the bedroom. The internet didn't work. Don't stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r553431440-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>553431440</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>THC</t>
+  </si>
+  <si>
+    <t>Awesome ! Experience was very nice ... wulll visit this location again ... staff friendly and attentive. Rooms in excellent condition. Location further than i thought but worked out ok after all . Thank you MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Awesome ! Experience was very nice ... wulll visit this location again ... staff friendly and attentive. Rooms in excellent condition. Location further than i thought but worked out ok after all . Thank you More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r549085016-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>549085016</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel in the heart of the area</t>
+  </si>
+  <si>
+    <t>The hotel is completely new, with great facilities and supreme service. The location was right in the heart of the area of Lake Houston and the Humble town. Perfect for business and for family trips. Clean and with all the amenities that Hilton will provide including the additional treat of free buffet breakfast. I will definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>The hotel is completely new, with great facilities and supreme service. The location was right in the heart of the area of Lake Houston and the Humble town. Perfect for business and for family trips. Clean and with all the amenities that Hilton will provide including the additional treat of free buffet breakfast. I will definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r544670709-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>544670709</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Family to IAH Airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was excellent. Hotel smelled fresh and clean.  Beds were very comforts.  Only thing is that you might want to check the bathrooms for mold, both 404 and 410 had some black discoloration in tub/shower. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r544375717-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>544375717</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip in November 2017. Staff was welcoming and friendly. Breakfast was always fully stocked, hot and delicious. Room was spacious, clean and comfy. This hotel is on a busy road. If you must turn right into the main road you are good to go. But if you must turn left, would recommend you go down the side road by the hotel and take the second right to get to the stop light.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip in November 2017. Staff was welcoming and friendly. Breakfast was always fully stocked, hot and delicious. Room was spacious, clean and comfy. This hotel is on a busy road. If you must turn right into the main road you are good to go. But if you must turn left, would recommend you go down the side road by the hotel and take the second right to get to the stop light.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r543065368-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>543065368</t>
+  </si>
+  <si>
+    <t>11/24/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>Due to hurricane Harvey, picked this property believing that this area did not flood. This property did not disappoint. Hotel was in great shape, looked like it may be brand new or nearly new. Along highway FM 1960, just west of downtown Atascocita with easy access to the Kingwood area where we were visiting. Great beds, fluffy towels, comfortable seating/desk area in the standard king room. Nice selection of breakfast eggs, meat, waffles, breads, fruit. Very good all day coffee available. Staff was very helpful with any and all requests. Easy to recommend this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>Due to hurricane Harvey, picked this property believing that this area did not flood. This property did not disappoint. Hotel was in great shape, looked like it may be brand new or nearly new. Along highway FM 1960, just west of downtown Atascocita with easy access to the Kingwood area where we were visiting. Great beds, fluffy towels, comfortable seating/desk area in the standard king room. Nice selection of breakfast eggs, meat, waffles, breads, fruit. Very good all day coffee available. Staff was very helpful with any and all requests. Easy to recommend this property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r540537295-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>540537295</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>New hotel with nice, clean rooms.  Convenient resturant’s. Staff friendly and continuing training. Next room a little noisy.  Good internet.  Parking was sufficient and some outside construction.  Would stay again and recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r537550480-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>537550480</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>sodi</t>
+  </si>
+  <si>
+    <t>I always stay at Hamption INN because there is never a disappointment with the brand.I recommend to other traveler to stay with Hamption Inn you will like it.The place is always clean breakfast is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I always stay at Hamption INN because there is never a disappointment with the brand.I recommend to other traveler to stay with Hamption Inn you will like it.The place is always clean breakfast is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r535748469-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>535748469</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel to stat at no sasuage on the buffet but nice quiet rooms the barn door for the bathromm no good cant lock it bead was nice quiet great location easy in easy out  close access to most attractions </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r530911257-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>530911257</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Quality as expected from Hamptons Inns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay! Clean, comfortable cool rooms. Standard Hampton breakfast with Home cooked oatmeal, waffles, and hot sausage, eggs and fruit. Soft towels, warm shower and located near good restaurants. Plenty of parking and easy checking in and out. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r530817950-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>530817950</t>
+  </si>
+  <si>
+    <t>ORIORDANT</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights recently, on arrival we were greeted by Courtney and were made welcome. Our room was most comfortable and clean. The breakfast was very good and was kept well stocked. All the staff we encountered were pleasant, we would stay again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r528199228-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>528199228</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Improvement Needed</t>
+  </si>
+  <si>
+    <t>I love Hampton overall but was not happy with the staff this time who would not get back on simple requests like:  1) Keyless app and using it 2) Extending stay  3) Stocking the gym with towels and water</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r527928429-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>527928429</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Poor staff attitude and nasty breakfast</t>
+  </si>
+  <si>
+    <t>Terrible staff. Over charged me and didn't want to fix the rate. Management wasn't helpful. I'm a diamond with Hilton honors and they didn't provide me with any of my privileges. New building and clean hotel. Nasty breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Terrible staff. Over charged me and didn't want to fix the rate. Management wasn't helpful. I'm a diamond with Hilton honors and they didn't provide me with any of my privileges. New building and clean hotel. Nasty breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r527480207-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>527480207</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel in convenient area</t>
+  </si>
+  <si>
+    <t>This hotel was located in an area near where we had family, which is the main reason we chose this Hampton Inn.  The hotel is five stories and is very modern/contemporary in decor and design. It's got all the latest bells &amp; whistles in technology in rooms for business travelers; very impressive.  They have a swimming pool, fitness center and business center but we didn't use them. Hotel is right on a major thoroughfare but we didn't experience any noise or disturbance at all.  Very nice staff and very nice hotel; price was reasonable.  The bed wasn't real comfortable to me, but could be because I'm used to sleeping on a memory foam mattress; loved the pillows tho. The free breakfast was very nice, lots of choices both hot and cold, but the hostess didn't keep the counters and tables clean.  Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was located in an area near where we had family, which is the main reason we chose this Hampton Inn.  The hotel is five stories and is very modern/contemporary in decor and design. It's got all the latest bells &amp; whistles in technology in rooms for business travelers; very impressive.  They have a swimming pool, fitness center and business center but we didn't use them. Hotel is right on a major thoroughfare but we didn't experience any noise or disturbance at all.  Very nice staff and very nice hotel; price was reasonable.  The bed wasn't real comfortable to me, but could be because I'm used to sleeping on a memory foam mattress; loved the pillows tho. The free breakfast was very nice, lots of choices both hot and cold, but the hostess didn't keep the counters and tables clean.  Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r516329283-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>516329283</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Very nice facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was a great stay. Staff was friendly and helpful.  Room was beautiful, though the bathroom was not as clean as It should have been.  Complimentary Internet worked fine. Complimentary breakfast was very good with many options. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r515066397-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>515066397</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Great Time</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff and clean hotel. We thoroughly enjoyed our stay. The breakfast was excellent. We visited the pool several times, enjoyed playing with our granddaughter and the staff provided plenty of clean towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff and clean hotel. We thoroughly enjoyed our stay. The breakfast was excellent. We visited the pool several times, enjoyed playing with our granddaughter and the staff provided plenty of clean towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r513536112-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>513536112</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>I was very satisfied with the hotel itself.  Very clean and staff was very helpful and welcoming.  The lobby is very updated which makes you feel as if you are at a 5 star hotel I would definitely stay at this location again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r510007573-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>510007573</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Safety for Female Traveler</t>
+  </si>
+  <si>
+    <t>This hitel is only 8 mo old (as of Aug 17) so it is very nice.  One thing I noticed was that when I checked in, there is a huge TV behind the desk that shows ALL the cameras on the property...there are tons od them and the images are very clear...even at night.  This made me feel very safe as the clerk said they are recorded at all hours.  Even rhe area by the air conditioners and bushes is on camera and that area is usually dark in my parking lots.  As a female business traveler i am aware of how lit a hotel parking lot is, how they habdle safety how close you can park, etc. This hotel really impressed me that they took safety so seriously.  Atscotita is a very nice area but anything can happen in any areaMoreShow less</t>
+  </si>
+  <si>
+    <t>This hitel is only 8 mo old (as of Aug 17) so it is very nice.  One thing I noticed was that when I checked in, there is a huge TV behind the desk that shows ALL the cameras on the property...there are tons od them and the images are very clear...even at night.  This made me feel very safe as the clerk said they are recorded at all hours.  Even rhe area by the air conditioners and bushes is on camera and that area is usually dark in my parking lots.  As a female business traveler i am aware of how lit a hotel parking lot is, how they habdle safety how close you can park, etc. This hotel really impressed me that they took safety so seriously.  Atscotita is a very nice area but anything can happen in any areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r507647023-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>507647023</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Good Service is Needed .</t>
+  </si>
+  <si>
+    <t>This is a good example to all Inns, Hotels ,Motels ,bed and breakfasts. I have travel many places and this was great. I am very pleased with the training to the staff at Hampton Inn to make my stay a pleasure. I would stay here again. It was my pleasure to let you know how good the stay was.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r506664335-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>506664335</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Hampton always take care of me</t>
+  </si>
+  <si>
+    <t>I havent had a bad experience at the hampton. I am a very hard person to please, I am more likely to leave a negative review than a positive one. Hampton has went above and beyond to meet my needs. stay here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r503385345-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>503385345</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Quiet &amp; Friendly</t>
+  </si>
+  <si>
+    <t>Location good enough for quick in and out. No traffic area. Staff was friendly and helpfull. It would be nice to have few more breakfast items but overall stay was enjoyable. Parking was well lighted and felt safe.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r502329549-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>502329549</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>In town for a coworker's wedding. This location was less than 10 minutes from the venue and mall. There are plenty of local shops and restaurants within walking distance. The bed was a little too firm..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r501449294-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>501449294</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>A+++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel with friendly and helpful staff. Rooms are well-appointed and clean. The bed was incredibly comfortable, the coffee was strong, and the service was amazing. This has turned into our go-to when visiting the Humble area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r499266582-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>499266582</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>4th of July weekend</t>
+  </si>
+  <si>
+    <t>The staff was the jewel at this location. Accommodations and breakfast was average. Choices at were a bit limited. Location in Humble was not in the heart of things but easily accessible from the interstate. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>The staff was the jewel at this location. Accommodations and breakfast was average. Choices at were a bit limited. Location in Humble was not in the heart of things but easily accessible from the interstate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r498486480-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>498486480</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>great place to stay look no further</t>
+  </si>
+  <si>
+    <t>what a wonderful place! i read some of the reviews and was concerned about the location  wanted to be near kingwood  this place was safe clean reasonable and had everything imcludung laundry we stayed 4 days!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>what a wonderful place! i read some of the reviews and was concerned about the location  wanted to be near kingwood  this place was safe clean reasonable and had everything imcludung laundry we stayed 4 days!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r495969555-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>495969555</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>New hotel with friendly staff</t>
+  </si>
+  <si>
+    <t>This hotel looks brand new. The room was nice and big with a quiet good working AC. Comfortable beds. Only thing missing is a microwave. All staff I dealt with was very friendly and helpful It is situated along FM 1960 but no noise comes into the room. Plenty of shops and restaurants nearby</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r492643447-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>492643447</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Great place to land</t>
+  </si>
+  <si>
+    <t>This property is lees than a year old and so is very fresh and clean. I found it to be very quiet and peaceful that contributed to a productive work environment for me and gave me a good night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>This property is lees than a year old and so is very fresh and clean. I found it to be very quiet and peaceful that contributed to a productive work environment for me and gave me a good night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r492308677-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>492308677</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and everything is looking great! Our check in was quick and we appreciated the complimentary bottled water. The location is a bit off the beaten track but not really a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and everything is looking great! Our check in was quick and we appreciated the complimentary bottled water. The location is a bit off the beaten track but not really a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r491878117-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491878117</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Second time around</t>
+  </si>
+  <si>
+    <t>We have two options for a place to stay when we visit family in this area. This was the second time around for this hotel. While it still has the new look a few things were noticed that need better attention. None of them would keep us from staying here again. They have good sized walk in showers in the king rooms tat only need a hand help sprayer and redesign the room so two people can see the TV while lying on the bed. They do need to have Biscuits and Gravy or Grits and gravy daily and bacon. Not everyone likes sausage. As long as the prices are competitive we will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have two options for a place to stay when we visit family in this area. This was the second time around for this hotel. While it still has the new look a few things were noticed that need better attention. None of them would keep us from staying here again. They have good sized walk in showers in the king rooms tat only need a hand help sprayer and redesign the room so two people can see the TV while lying on the bed. They do need to have Biscuits and Gravy or Grits and gravy daily and bacon. Not everyone likes sausage. As long as the prices are competitive we will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r487582434-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>487582434</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great Experience, great value</t>
+  </si>
+  <si>
+    <t>This hotel offers very good amenities,  friendly staff and an excellent location for a great price.  My wife and I really enjoyed our stay.  It made a special family weekend even more special to us.  Nice job.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel offers very good amenities,  friendly staff and an excellent location for a great price.  My wife and I really enjoyed our stay.  It made a special family weekend even more special to us.  Nice job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r487112105-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>487112105</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Exceptional Hotel⭐️⭐️⭐️⭐️⭐️</t>
+  </si>
+  <si>
+    <t>This hotel is superb!! Would definitely stay at this hotel again and again!! Welcoming staff, clean rooms, quite, excellent complimentry breakfast!!! This hotel goes above and beyond for its guests!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is superb!! Would definitely stay at this hotel again and again!! Welcoming staff, clean rooms, quite, excellent complimentry breakfast!!! This hotel goes above and beyond for its guests!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r485516371-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>485516371</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Staff was A-1!  Friendly,accommodating and helpful.  Excellent location, good food, very nice hotel that I would recommend to friends while in town.  I would stay here again for the price we received.  Didn't hurt that I earned additional Hilton Honors points either!MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was A-1!  Friendly,accommodating and helpful.  Excellent location, good food, very nice hotel that I would recommend to friends while in town.  I would stay here again for the price we received.  Didn't hurt that I earned additional Hilton Honors points either!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r480358220-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>480358220</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>So great! Excellent experience will return. Coffee and breakfast was great. Clean and professional. The staff on all levels were amazing, friendly and informative. Rachel's the most helpful staff member ever MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>So great! Excellent experience will return. Coffee and breakfast was great. Clean and professional. The staff on all levels were amazing, friendly and informative. Rachel's the most helpful staff member ever More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r479886074-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>479886074</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>More than adequate place to stay. rooms are good sized and well thought out, very clean and bathroom was neat. Beds were excellent and very comfortable. Would recommend to anybody to stay. There are good restaurants, a driving range, a golf course and shopping centers nearby even within walking distance. Access to freeways and major roadways are easy to get to and pretty close.MoreShow less</t>
+  </si>
+  <si>
+    <t>More than adequate place to stay. rooms are good sized and well thought out, very clean and bathroom was neat. Beds were excellent and very comfortable. Would recommend to anybody to stay. There are good restaurants, a driving range, a golf course and shopping centers nearby even within walking distance. Access to freeways and major roadways are easy to get to and pretty close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r477326877-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>477326877</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Location and Value Top-Notch</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by this new location NEAR many golf courses...easy to get to and around where we wanted to go...VERY friendly and helpful staff...NEW is usually better, but this place was exceptional!MoreShow less</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised by this new location NEAR many golf courses...easy to get to and around where we wanted to go...VERY friendly and helpful staff...NEW is usually better, but this place was exceptional!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r472819682-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>472819682</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Quality service at newer Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is less than a year old, it was clean and comfortable. The service was great and the staff was friendly. We were upgraded to a king suite and were very appreciative. I would recommend this hotel to anyone staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is less than a year old, it was clean and comfortable. The service was great and the staff was friendly. We were upgraded to a king suite and were very appreciative. I would recommend this hotel to anyone staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r471079436-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>471079436</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay, great hotel with superb staff.</t>
+  </si>
+  <si>
+    <t>The hotel was very clean, in an excellent shape and very well managed. It was a good price for its location close to Airport and Lake Houston. I would definitely stay there again considering there is plenty of restaurants nearby. The breakfast had good variety with fresh fruits, the rooms were good size with modern amenities, and the pool and fitness center were very nice.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r469539073-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>469539073</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Nice and Modern</t>
+  </si>
+  <si>
+    <t>My husband and I wanted a quick get-away that was close to home so we chose this Hampton since it was close to our neighborhood.  The hotel is very modern with plenty of USB and charging ports in the room.  The bed was extremely comfortable and the room was clean and nicely furnished.  We enjoyed our stay so much that we are staying again in another week or so.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I wanted a quick get-away that was close to home so we chose this Hampton since it was close to our neighborhood.  The hotel is very modern with plenty of USB and charging ports in the room.  The bed was extremely comfortable and the room was clean and nicely furnished.  We enjoyed our stay so much that we are staying again in another week or so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r465861019-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>465861019</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Surprise</t>
+  </si>
+  <si>
+    <t>I as very surprised! The rooms were of a architectural contemporary design with clean lines and style. The interior design was of excellent choices. The stay was quite, comfortable and most important the bed were welcoming, slept like a baby!Beautiful bathrooms!! No humidity build up when you shower.Elizabeth accepted us with a warm smile and genuine delight....her demeanor spoke volumes.MoreShow less</t>
+  </si>
+  <si>
+    <t>I as very surprised! The rooms were of a architectural contemporary design with clean lines and style. The interior design was of excellent choices. The stay was quite, comfortable and most important the bed were welcoming, slept like a baby!Beautiful bathrooms!! No humidity build up when you shower.Elizabeth accepted us with a warm smile and genuine delight....her demeanor spoke volumes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r464710755-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>464710755</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Dark and Uneasy Location</t>
+  </si>
+  <si>
+    <t>Exceptional staff and management, but the location was spooky at night. Very dark. Because of this reason we moved out a day early and will not stay here again. We think its because of the location outside of town plus the very dark neighborhood and woods around there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Exceptional staff and management, but the location was spooky at night. Very dark. Because of this reason we moved out a day early and will not stay here again. We think its because of the location outside of town plus the very dark neighborhood and woods around there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r463439018-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>463439018</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Excellent Staff</t>
+  </si>
+  <si>
+    <t>This hotel is extremely clean and has friendly and welcoming staff. The workout room is incredible, too!  You get delicious and free breakfast, cookies in the afternoon and I look forward to a return visit. Zero complaints from me and I'm really a tough critic!  Can't go wrong staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is extremely clean and has friendly and welcoming staff. The workout room is incredible, too!  You get delicious and free breakfast, cookies in the afternoon and I look forward to a return visit. Zero complaints from me and I'm really a tough critic!  Can't go wrong staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r461893928-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>461893928</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Super friendly service and CLEAN!</t>
+  </si>
+  <si>
+    <t>We enjoyed every part of our stay from the citrus water in the lobby to the warm evening cookies.  The staff was very friendly and the rooms were clean and nice.  Great hotel and in a convenient location, close to restaurants, convenience stores, etc.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r461555770-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>461555770</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>New hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would definitely stay at the hotel again when in Houston.   Food was great, and bed, as always was wonderful.  Staff was very kind.   Location was close enough to some shopping and far away enough to not have to hassle with must traffic.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r460727082-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>460727082</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Great trip</t>
+  </si>
+  <si>
+    <t>Room was nice...staff was great.  The only thing I would change are the pillows...they were flat.  There are a lot of eateries in the area.  Even though fm1960 is a busy street, it was still quiet in our room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r458545186-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>458545186</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Stay</t>
+  </si>
+  <si>
+    <t>Very clean and very friendly staff. Breakfast was excellent.  Rooms comfortable and spotless. Staff went out of their way to make sure we had everything we  needed.  Printed our return boarding tickets directions to all the Super Bowl activities.  Always greeted us with a smile.Even had  congratulatory Patriot cupcakes for the guests.  Enjoyed our stay very much MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Very clean and very friendly staff. Breakfast was excellent.  Rooms comfortable and spotless. Staff went out of their way to make sure we had everything we  needed.  Printed our return boarding tickets directions to all the Super Bowl activities.  Always greeted us with a smile.Even had  congratulatory Patriot cupcakes for the guests.  Enjoyed our stay very much More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r455739978-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>455739978</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Barn Doors should stay on Barns,</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel (the desk clerk said it's around 2 years old) but it seemed newer than that. The design is very modern (and to me it felt sterile and cold) but it was still a very comfortable hotel up to the usual Hampton standards, My only complaint (and it's obviously a personal preference having nothing to do with the quality of the hotel or service) is the sliding "Barn Door" for the bathroom with no lock. I fully realize I'm old school on this (My wife along with a lot of other viewers of HGTV's "Fixer Uppers" is enthralled with the  sliding door on over head rails that seems to be installed every where now) but I think they're ungainly and I can't believe there is no lock. The breakfast was also lackluster. I wish Hampton would stay with tried and true "class".MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel (the desk clerk said it's around 2 years old) but it seemed newer than that. The design is very modern (and to me it felt sterile and cold) but it was still a very comfortable hotel up to the usual Hampton standards, My only complaint (and it's obviously a personal preference having nothing to do with the quality of the hotel or service) is the sliding "Barn Door" for the bathroom with no lock. I fully realize I'm old school on this (My wife along with a lot of other viewers of HGTV's "Fixer Uppers" is enthralled with the  sliding door on over head rails that seems to be installed every where now) but I think they're ungainly and I can't believe there is no lock. The breakfast was also lackluster. I wish Hampton would stay with tried and true "class".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r449477266-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>449477266</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Happy Happy Traveler!</t>
+  </si>
+  <si>
+    <t>Hampton Inn &amp; Suites in Atascocita, Tx. is a new, clean, nice-smelling hotel. Everything was great. Friendly staff, great mattress and pillows, air worked great, nice bathroom... just an overall excellent experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Hampton Inn &amp; Suites in Atascocita, Tx. is a new, clean, nice-smelling hotel. Everything was great. Friendly staff, great mattress and pillows, air worked great, nice bathroom... just an overall excellent experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r437231844-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>437231844</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Terrific New Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is only 1 month old and is beautiful.  Staff is obviously very well trained and know how to run a hotel.  Wonderfully clean and the breakfast is fantastic - I want a waffle right now, and the fresh fruit.  Location is great being outside of Houston but going into the city on the weekend was easy, didn't want to try a weekday.  Not too far from the airport but far enough away to not have the noise.  Developing and busy area with plenty of restaurants and shopping within easy driving distance.  Loved it</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r437180659-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>437180659</t>
+  </si>
+  <si>
+    <t>New Hotel, Great Accommodations, Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed the weekend at the Hampton Inn and was very impressed with the accommodations.  The hotel appeared almost brand new.  The front desk was friendly and cheerful.  The rooms were very modern, and large.  The bed was super comfortable and the room was actually dark at night.  So many hotels have curtains that let light sneak in, and it wasn't a problem here.  The TV was huge.  Everything about the room said new and up to date.  The location is really great,  Everything you want is within a couple of miles of the hotel including restaurants and shopping.  I would definitely stay again if i am in the Humble area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed the weekend at the Hampton Inn and was very impressed with the accommodations.  The hotel appeared almost brand new.  The front desk was friendly and cheerful.  The rooms were very modern, and large.  The bed was super comfortable and the room was actually dark at night.  So many hotels have curtains that let light sneak in, and it wasn't a problem here.  The TV was huge.  Everything about the room said new and up to date.  The location is really great,  Everything you want is within a couple of miles of the hotel including restaurants and shopping.  I would definitely stay again if i am in the Humble area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1645,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1677,4042 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>119</v>
+      </c>
+      <c r="X13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>119</v>
+      </c>
+      <c r="X14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>119</v>
+      </c>
+      <c r="X16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>119</v>
+      </c>
+      <c r="X17" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>119</v>
+      </c>
+      <c r="X19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>184</v>
+      </c>
+      <c r="X24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>119</v>
+      </c>
+      <c r="X27" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s">
+        <v>235</v>
+      </c>
+      <c r="L33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" t="s">
+        <v>237</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s">
+        <v>247</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>248</v>
+      </c>
+      <c r="X35" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>256</v>
+      </c>
+      <c r="X36" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>264</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>270</v>
+      </c>
+      <c r="X38" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>274</v>
+      </c>
+      <c r="J39" t="s">
+        <v>275</v>
+      </c>
+      <c r="K39" t="s">
+        <v>276</v>
+      </c>
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>264</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>270</v>
+      </c>
+      <c r="X39" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>270</v>
+      </c>
+      <c r="X40" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>290</v>
+      </c>
+      <c r="O41" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>291</v>
+      </c>
+      <c r="X41" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>291</v>
+      </c>
+      <c r="X42" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>290</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>291</v>
+      </c>
+      <c r="X43" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+      <c r="J44" t="s">
+        <v>308</v>
+      </c>
+      <c r="K44" t="s">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s">
+        <v>310</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>311</v>
+      </c>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>291</v>
+      </c>
+      <c r="X44" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
+        <v>317</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>311</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>291</v>
+      </c>
+      <c r="X45" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" t="s">
+        <v>321</v>
+      </c>
+      <c r="K46" t="s">
+        <v>322</v>
+      </c>
+      <c r="L46" t="s">
+        <v>323</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>311</v>
+      </c>
+      <c r="O46" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>291</v>
+      </c>
+      <c r="X46" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" t="s">
+        <v>327</v>
+      </c>
+      <c r="K47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s">
+        <v>329</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>311</v>
+      </c>
+      <c r="O47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>291</v>
+      </c>
+      <c r="X47" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" t="s">
+        <v>335</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>336</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>336</v>
+      </c>
+      <c r="O49" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>291</v>
+      </c>
+      <c r="X49" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>336</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>291</v>
+      </c>
+      <c r="X50" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>291</v>
+      </c>
+      <c r="X51" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>360</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>291</v>
+      </c>
+      <c r="X52" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" t="s">
+        <v>369</v>
+      </c>
+      <c r="K54" t="s">
+        <v>370</v>
+      </c>
+      <c r="L54" t="s">
+        <v>371</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>354</v>
+      </c>
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" t="s">
+        <v>376</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>354</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>378</v>
+      </c>
+      <c r="J56" t="s">
+        <v>379</v>
+      </c>
+      <c r="K56" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>354</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>382</v>
+      </c>
+      <c r="X56" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" t="s">
+        <v>389</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O57" t="s">
+        <v>77</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>382</v>
+      </c>
+      <c r="X57" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s">
+        <v>237</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>398</v>
+      </c>
+      <c r="X58" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>401</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>402</v>
+      </c>
+      <c r="J59" t="s">
+        <v>403</v>
+      </c>
+      <c r="K59" t="s">
+        <v>404</v>
+      </c>
+      <c r="L59" t="s">
+        <v>405</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>406</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>408</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>409</v>
+      </c>
+      <c r="L60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>406</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_254.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_254.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,36 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r614147694-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>10758543</t>
+  </si>
+  <si>
+    <t>614147694</t>
+  </si>
+  <si>
+    <t>Great stay at Atascocita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were welcomed at the property by the front desk clerk who was cordial and happy to see us even though it was late. The room was clean and had everything we needed. I would say if you show up late and look for food in the area, don't expect too much as most places close early even on a Saturday evening. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r597128445-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>10758543</t>
-  </si>
-  <si>
     <t>597128445</t>
   </si>
   <si>
@@ -177,7 +195,70 @@
     <t>July 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r611654197-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>611654197</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Hampton Atascocita</t>
+  </si>
+  <si>
+    <t>I have been using sections of the Hilton brand for the last three years.  They have been great.  I expect a certain level of comfort with them and this particular hotel did not disappoint.  The staff was corteous and attentive and we had a great time.  Come on...the place allows you to make your own waffles.  How can you beat that?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r609023311-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>609023311</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay, will definitely stay with Hampton every time, I stay away from home! From the staff at the front desk to the ladies preparing breakfast, they were all welcoming and friendly. The Hotel was also in a good location near a Starbucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r608604475-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>608604475</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>You need to stay here</t>
+  </si>
+  <si>
+    <t>This place was awesome, friendly staff and accommodations were clean and well maintained. I would recommend this hotel to anyone for business or leisure. The room was cold when we arrived, awesome for Texas.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r597434564-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>597434564</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Good time in Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is very clean, friendly and staff was polite breakfast was very good assorted food front desk staff very friendly and helpful, swimming pools very clean water nice temperature I think this is great place to stay Thanks </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r596818779-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
@@ -216,7 +297,37 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r588833643-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>588833643</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Brand new hotel</t>
+  </si>
+  <si>
+    <t>This was an excellent hotel with amazing breakfast. The staff was friendly and rooms were flawlessly clean. I really liked how spacious rooms are and common area is great for meetings or gathering. They also have an outdoor pool which looked to be in very nice, but i will have to enjoy it on my next visit.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r587508294-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>587508294</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Loved it here!</t>
+  </si>
+  <si>
+    <t>We stayed here for several nights while in town for a graduation for Kingwood High.  Even though the hotel was pretty full, with several teens on the top floor where we were, it was so quiet.  Maybe the guests were all being courteous or maybe the doors just don't slam as in so many hotels, it was just quiet. The staff is fine, too. In particular, Marisabel greeted us, checked us in, and set us up in a comfortable, spacious suite.  She's a real asset to this property.  It's a rather new property with a modern design.  We look forward to our next stay when in the area.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r586822462-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
@@ -249,7 +360,22 @@
     <t>The hotel was very clean.The continental breakfast could be improved, but it was still great. The only negative thing about my stay was it wasn't any bottled water in the room. The hotel is in a great location. You are surrounded by many restaurants and shopping.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r582727025-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>582727025</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Nice hitel</t>
+  </si>
+  <si>
+    <t>I was in town to go to a concert and decided to stay here since it wasn’t far from where i had to go. The hotel is very nice and clean, comfortable bed, also great location close to a lot of restaurants and great service that you expect from Hampton Inn.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r580879172-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
@@ -267,7 +393,37 @@
     <t>Took A Group on A Golf Trip To Tour 18 and Stayed Here Over night. The Staff From The Time We Checked In To The Time We Left Was Very Friendly and Helpful. I Highly Recommend Staying Here. A+++ Service From Beginning To End.</t>
   </si>
   <si>
-    <t>May 2018</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r575748856-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>575748856</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I came to Houston TX to visit my boyfriend and for business. I greated my a great front desk representative female with natural hair. She was delightful. The room was spacious and very clean. The shower was awesome with hot water every time. The snack area was good as well. I was able to use the complimentary wifi for Hilton honors members to compleye information for my interview and for my accounting class. The bed is great, I slept well. Thank you for a great stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r568534047-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>568534047</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Quality has gone down</t>
+  </si>
+  <si>
+    <t>Hanger broken on the luggage cart. Water controls broken on the tub/shower.  Cold food and coffee at breakfast.  Stayed here several times before and didn't have these problems.  Prices have gone up and quality has gone down. Going to give them one more chance.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r561563019-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
@@ -318,6 +474,36 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r558877220-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>558877220</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Decent location, feels brand new</t>
+  </si>
+  <si>
+    <t>The hotel feels relatively new. Nice elevators and interiors. Rooms are a decent size, bathrooms were nice but also had a few markings on them already. Staff was nice and helpful.  Decent location with a few things in walking distance but most is driveable. About 15 minutes from the airport</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r557389686-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>557389686</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Recent stay</t>
+  </si>
+  <si>
+    <t>Clean hotel and rooms.  The staff was welcoming and professional we didn't have any issues with our quick stay.  We were in the area for a wedding and the locations was perfect to the venue.  We would stay here again if in the area.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r555557517-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -384,6 +570,42 @@
     <t>Awesome ! Experience was very nice ... wulll visit this location again ... staff friendly and attentive. Rooms in excellent condition. Location further than i thought but worked out ok after all . Thank you More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r553267067-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>553267067</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Always a great place in Humble, Texas</t>
+  </si>
+  <si>
+    <t>Stayed here during a family visit. Always enjoy this location. Not my first time here. Could have found a cheaper location but my overall experience at a Hilton property has always been great. Would recommend this location. Denise was great to deal with. Polite and knowledgeable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here during a family visit. Always enjoy this location. Not my first time here. Could have found a cheaper location but my overall experience at a Hilton property has always been great. Would recommend this location. Denise was great to deal with. Polite and knowledgeable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r550344125-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>550344125</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Lost Item</t>
+  </si>
+  <si>
+    <t>We forgot my wifes glasses in this location. I can say 100% without a doubt they are there and they claim they are NOT there. We have called the hotel twice and still have not heard back from them. We had to leave and get out early and forgot an item of ours. We should have gone through the room more carefully, but if something is left, it should be returned!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r549085016-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -399,9 +621,6 @@
     <t>The hotel is completely new, with great facilities and supreme service. The location was right in the heart of the area of Lake Houston and the Humble town. Perfect for business and for family trips. Clean and with all the amenities that Hilton will provide including the additional treat of free buffet breakfast. I will definitely recommend it.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>The hotel is completely new, with great facilities and supreme service. The location was right in the heart of the area of Lake Houston and the Humble town. Perfect for business and for family trips. Clean and with all the amenities that Hilton will provide including the additional treat of free buffet breakfast. I will definitely recommend it.More</t>
   </si>
   <si>
@@ -441,6 +660,39 @@
     <t>Stayed here for a business trip in November 2017. Staff was welcoming and friendly. Breakfast was always fully stocked, hot and delicious. Room was spacious, clean and comfy. This hotel is on a busy road. If you must turn right into the main road you are good to go. But if you must turn left, would recommend you go down the side road by the hotel and take the second right to get to the stop light.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r544078193-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>544078193</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable stay and a delicious breakfast!</t>
+  </si>
+  <si>
+    <t>This hotel boasts very nice large rooms. The staff is very friendly. I experienced an easy check in. Comfortable bed. Clean room. I liked the many breakfast choices and the food was delicious. I will stay here again for sure! MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel boasts very nice large rooms. The staff is very friendly. I experienced an easy check in. Comfortable bed. Clean room. I liked the many breakfast choices and the food was delicious. I will stay here again for sure! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r543720579-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>543720579</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Bad Customer Service</t>
+  </si>
+  <si>
+    <t>The place is great. The location is great. The front desk customer service agent I had while checking in was rude and unprofessional. When I asked for a welcome gift as a Hilton Gold Member- she said I wasn’t. I said I was and presented my Gold card and she seemed irritated to be wrong. I just think that was an isolated incident since the gentleman that checked me out was very pleasant.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r543065368-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -495,6 +747,33 @@
     <t>I always stay at Hamption INN because there is never a disappointment with the brand.I recommend to other traveler to stay with Hamption Inn you will like it.The place is always clean breakfast is very good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r537311788-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>537311788</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>PERFECT!</t>
+  </si>
+  <si>
+    <t>This hotel is amazing! Although you may feel the location is far from the main road, its the best! Clean, wonderful staff, and just amazing rooms. Perfect location for local restaurants! I was attending a wedding, barn wedding, and it was great location right before and after the ceremony!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r537311182-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>537311182</t>
+  </si>
+  <si>
+    <t>Good Value and Nice Hotel</t>
+  </si>
+  <si>
+    <t>Staff was friendly; hotel was relatively new; location was good.  Would stay again if I were back in Houston for business. Can't really think of anything to suggest changing.  Thanks for making my stay such a comfortable one.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r535748469-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -540,15 +819,48 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r529987919-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>529987919</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Great hotel for the price, I will definitely stay there every time I'm in the area.</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Hampton Inn and did not really know what to expect. After arriving, I was warmly greeted by the front desk staff who immediately made me feel at home, I want to mention that every member of the staff I met was extremely friendly and professional. My room was spacious and clean and the staff responded to all my request in a timely manner, even the one for cookies.  They don't have a laundry service at the hotel but after speaking to the Manager about my dilemma she took my things to get cleaned and had them for me later that evening. I was very impressed by her drive to please me and the level of customer service she displayed by her actions.  The pool was clean, the gym was nice, the breakfast was good  and most of all the hotel was clean and quiet.  I have zero complaints and will recommend this hotel to my friends and coworkers that have to stay in the area for work or leisure.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Hampton Inn and did not really know what to expect. After arriving, I was warmly greeted by the front desk staff who immediately made me feel at home, I want to mention that every member of the staff I met was extremely friendly and professional. My room was spacious and clean and the staff responded to all my request in a timely manner, even the one for cookies.  They don't have a laundry service at the hotel but after speaking to the Manager about my dilemma she took my things to get cleaned and had them for me later that evening. I was very impressed by her drive to please me and the level of customer service she displayed by her actions.  The pool was clean, the gym was nice, the breakfast was good  and most of all the hotel was clean and quiet.  I have zero complaints and will recommend this hotel to my friends and coworkers that have to stay in the area for work or leisure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r528051283-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>528051283</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Nice clean Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location. The parking is free. The pool is outdoors which is a bonus. The breakfast is lovely. Don't count on using the free WiFi. It doesn't work. The staff is Pleasant. I was billed for $20 more than my final check out Bill stated. I still have to sort that out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r528199228-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
     <t>528199228</t>
   </si>
   <si>
-    <t>09/28/2017</t>
-  </si>
-  <si>
     <t>Improvement Needed</t>
   </si>
   <si>
@@ -597,6 +909,39 @@
     <t>This hotel was located in an area near where we had family, which is the main reason we chose this Hampton Inn.  The hotel is five stories and is very modern/contemporary in decor and design. It's got all the latest bells &amp; whistles in technology in rooms for business travelers; very impressive.  They have a swimming pool, fitness center and business center but we didn't use them. Hotel is right on a major thoroughfare but we didn't experience any noise or disturbance at all.  Very nice staff and very nice hotel; price was reasonable.  The bed wasn't real comfortable to me, but could be because I'm used to sleeping on a memory foam mattress; loved the pillows tho. The free breakfast was very nice, lots of choices both hot and cold, but the hostess didn't keep the counters and tables clean.  Will definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r525294599-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>525294599</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel and staff!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this particular Hampton Inn. The staff was very accommodating, polite and willing to go the extra mile to make sure that my family's stay was comfortable. The property was very well kept and the continental breakfast was delicious. It's located near many retail stores and restaurants which was very convenient.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r523290735-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>523290735</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Everything great! Thank you guys! This hotel was so clean and the best customer service!  Breakfast was good! The pool was clean! The rooms were so nice and cozy! Bed slept real good! Had a great night rest before we woke up for our cruise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r516329283-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -612,9 +957,6 @@
     <t xml:space="preserve">Was a great stay. Staff was friendly and helpful.  Room was beautiful, though the bathroom was not as clean as It should have been.  Complimentary Internet worked fine. Complimentary breakfast was very good with many options. </t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r515066397-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -648,6 +990,33 @@
     <t>I was very satisfied with the hotel itself.  Very clean and staff was very helpful and welcoming.  The lobby is very updated which makes you feel as if you are at a 5 star hotel I would definitely stay at this location again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r513539150-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>513539150</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and was in a great location. The staff were friendly and very helpful. My only issue was the internet was a little bit slow but otherwise, everything was great! Would highly recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r513022404-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>513022404</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Nice clean Hotel for a good price.</t>
+  </si>
+  <si>
+    <t>Stayed at this Hotel 2 times now.  Friendly staff, new hotel, great price, clean rooms and public spaces and good location!  I recommend this hotel over any near the airport.  Good access to food and the Kingwood area while still around 15 minutes to IAH airport.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r510007573-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -699,15 +1068,42 @@
     <t>I havent had a bad experience at the hampton. I am a very hard person to please, I am more likely to leave a negative review than a positive one. Hampton has went above and beyond to meet my needs. stay here</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r503758945-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>503758945</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Experience at Hampton</t>
+  </si>
+  <si>
+    <t>I had a very good and marvelous experience...I'll surely do it again! The location was very convenient for us as well as strategic to all the events we were there for. My daughter like to swim in the pool and I took advantage of going to church within close proximity.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r503383288-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>503383288</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel - Great Value</t>
+  </si>
+  <si>
+    <t>This hotel was clean and well managed.  Employees are very friendly and willing to help however they can.  I have to use 104 characters  - this is why I typically don't post online reviews. Got nothing else to say - pretty straight forward. Nice hotel, great customer service.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r503385345-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
     <t>503385345</t>
   </si>
   <si>
-    <t>07/18/2017</t>
-  </si>
-  <si>
     <t>Quiet &amp; Friendly</t>
   </si>
   <si>
@@ -729,9 +1125,6 @@
     <t>In town for a coworker's wedding. This location was less than 10 minutes from the venue and mall. There are plenty of local shops and restaurants within walking distance. The bed was a little too firm..</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r501449294-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -747,6 +1140,36 @@
     <t xml:space="preserve">Great hotel with friendly and helpful staff. Rooms are well-appointed and clean. The bed was incredibly comfortable, the coffee was strong, and the service was amazing. This has turned into our go-to when visiting the Humble area. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r501119204-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>501119204</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>New Location with Modern Decor</t>
+  </si>
+  <si>
+    <t>The Atascosita location is a new hotel with very modern and efficient furnishings. The housekeeping staff is great but the desk staff are not terribly efficient. Breakfast was good but this is the one area where Hampton Inn &amp; Suites needs to step things up to match the competition at places like Staybridge Suites. Still, overall a good rate on the room and a quiet stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r500532670-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>500532670</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Over exceeded Expectations</t>
+  </si>
+  <si>
+    <t>Wonderful welcome from Tia upon arrival with a bottle of water and a smile.  Easy check in and kind acknowledgement of my Hilton Honors status.  Nice to be home when you travel.  2 teenagers joined me. We thoroughly enjoyed daily breakfast served by Ms. K Hampton who makes sure all of your juices, bacon and waffles are plentiful &amp; hot.  My double room was new and clean.  Love the comforter!  The Front desk offered quarters for the new laundry room appliances.  The boys enjoyed the comfortable water feature and pool chairs for the 5ft pool.  It was a very enjoyable stay.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r499266582-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -813,6 +1236,48 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r494877120-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>494877120</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Hampton hits a home run</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here last weekend while visiting family. The hotel is fairly new, very clean and well-appointed with a very modern motif.Kiana met us at the front desk for check-in, and was most helpful during our three-night stay. She was friendly and professional, even while working extended hours over the weekend. She is to be commended.We had a King room with a sofa, microwave and fridge. This an excellent layout, and it puts the A/C unit far away from the bed. (We often find that A/C units in hotels are close to the beds and make sleeping uncomfortable).The room was spacious, the king bed very comfortable, and the oversized shower had plenty of hot water.Complimentary wi-fi was more than sufficient for our needs, and there was a 24hr business alcove to use as well.Breakfast was very good with a decent variety of pastries, cereals and a rotating hot menu.The coffee was outstanding!There are many restaurants within a mile of the hotel, so eating nearby is not an issue.One caution; traffic on FM1960 is moderate to heavy at most times, so beware when trying to exit onto that roadway. Fortunately, the hotel is situated back away from the roadway a bit, and we had no issues with traffic noise. It was there, but we didn't find it intrusive from our 5th floor, front-facing room.We will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here last weekend while visiting family. The hotel is fairly new, very clean and well-appointed with a very modern motif.Kiana met us at the front desk for check-in, and was most helpful during our three-night stay. She was friendly and professional, even while working extended hours over the weekend. She is to be commended.We had a King room with a sofa, microwave and fridge. This an excellent layout, and it puts the A/C unit far away from the bed. (We often find that A/C units in hotels are close to the beds and make sleeping uncomfortable).The room was spacious, the king bed very comfortable, and the oversized shower had plenty of hot water.Complimentary wi-fi was more than sufficient for our needs, and there was a 24hr business alcove to use as well.Breakfast was very good with a decent variety of pastries, cereals and a rotating hot menu.The coffee was outstanding!There are many restaurants within a mile of the hotel, so eating nearby is not an issue.One caution; traffic on FM1960 is moderate to heavy at most times, so beware when trying to exit onto that roadway. Fortunately, the hotel is situated back away from the roadway a bit, and we had no issues with traffic noise. It was there, but we didn't find it intrusive from our 5th floor, front-facing room.We will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r494241566-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>494241566</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>We stayed here Friday June 9 through June 11.  It was very nice and clean. The staff was nice and friendly.  The breakfast in the morning was really good as well.  Whatever we need, they were willing to help and provide us with information.  I will be staying here again.  I was satisfied with everything about this place.  I was very accessible to stores and down the street from the mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here Friday June 9 through June 11.  It was very nice and clean. The staff was nice and friendly.  The breakfast in the morning was really good as well.  Whatever we need, they were willing to help and provide us with information.  I will be staying here again.  I was satisfied with everything about this place.  I was very accessible to stores and down the street from the mall.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r492643447-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1338,48 @@
     <t>We have two options for a place to stay when we visit family in this area. This was the second time around for this hotel. While it still has the new look a few things were noticed that need better attention. None of them would keep us from staying here again. They have good sized walk in showers in the king rooms tat only need a hand help sprayer and redesign the room so two people can see the TV while lying on the bed. They do need to have Biscuits and Gravy or Grits and gravy daily and bacon. Not everyone likes sausage. As long as the prices are competitive we will be back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r488291578-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>488291578</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>I'm happy with the way they were very nice to the customers  and they were all very very nice. I love the rooms they was small but updated the restroom was lovely and modern and the shower was spaces for two.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>I'm happy with the way they were very nice to the customers  and they were all very very nice. I love the rooms they was small but updated the restroom was lovely and modern and the shower was spaces for two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r488258534-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>488258534</t>
+  </si>
+  <si>
+    <t>Avg if you give the room all the credit...</t>
+  </si>
+  <si>
+    <t>...the rest of the hotel &amp; accommodations weren't so great. I have pictures of a large, dead roach that was very noticeable to ME in the hallway about 2 doors down from my room...but it was so hot &amp; humid in the hallway &amp; elevator, I kinda wasn't surprised by the big bug. The breakfast (the hot portion anyways) was pretty bad...no bacon all weekend??? Still in Texas, rite??? Runny gravy to boot...what a waste to throw away :(MoreShow less</t>
+  </si>
+  <si>
+    <t>...the rest of the hotel &amp; accommodations weren't so great. I have pictures of a large, dead roach that was very noticeable to ME in the hallway about 2 doors down from my room...but it was so hot &amp; humid in the hallway &amp; elevator, I kinda wasn't surprised by the big bug. The breakfast (the hot portion anyways) was pretty bad...no bacon all weekend??? Still in Texas, rite??? Runny gravy to boot...what a waste to throw away :(More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r487582434-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -888,15 +1395,6 @@
     <t>This hotel offers very good amenities,  friendly staff and an excellent location for a great price.  My wife and I really enjoyed our stay.  It made a special family weekend even more special to us.  Nice job.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded May 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 28, 2017</t>
-  </si>
-  <si>
     <t>This hotel offers very good amenities,  friendly staff and an excellent location for a great price.  My wife and I really enjoyed our stay.  It made a special family weekend even more special to us.  Nice job.More</t>
   </si>
   <si>
@@ -936,6 +1434,45 @@
     <t>Staff was A-1!  Friendly,accommodating and helpful.  Excellent location, good food, very nice hotel that I would recommend to friends while in town.  I would stay here again for the price we received.  Didn't hurt that I earned additional Hilton Honors points either!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r482207031-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>482207031</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>New property in the Atascocita area</t>
+  </si>
+  <si>
+    <t>Quite new property so everything was working fine and looked great.  good amenities and breakfast although that's pretty standard at all Hamptons. Avoid getting a room just above the carport as mine was noisy early in the morning. Very good housekeeping service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Quite new property so everything was working fine and looked great.  good amenities and breakfast although that's pretty standard at all Hamptons. Avoid getting a room just above the carport as mine was noisy early in the morning. Very good housekeeping service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r481325096-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>481325096</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Hampton Inn</t>
+  </si>
+  <si>
+    <t>Good location off 1960. Cannot get a better priced room for the quality of hotel. Free breakfast and free wifi, big TVs. I think they put the hotel too far into 1960 thinking BWI people would willingly drive there. But they don't so the price is super cheap for what you get. It's better than the LaQuinta or Best Western which are about 20$ more per night. Take advantage. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Good location off 1960. Cannot get a better priced room for the quality of hotel. Free breakfast and free wifi, big TVs. I think they put the hotel too far into 1960 thinking BWI people would willingly drive there. But they don't so the price is super cheap for what you get. It's better than the LaQuinta or Best Western which are about 20$ more per night. Take advantage. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r480358220-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1488,6 @@
     <t>So great! Excellent experience will return. Coffee and breakfast was great. Clean and professional. The staff on all levels were amazing, friendly and informative. Rachel's the most helpful staff member ever MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>So great! Excellent experience will return. Coffee and breakfast was great. Clean and professional. The staff on all levels were amazing, friendly and informative. Rachel's the most helpful staff member ever More</t>
   </si>
   <si>
@@ -993,6 +1527,42 @@
     <t>Pleasantly surprised by this new location NEAR many golf courses...easy to get to and around where we wanted to go...VERY friendly and helpful staff...NEW is usually better, but this place was exceptional!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r476255715-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>476255715</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Exceptional Hotel Experience!!</t>
+  </si>
+  <si>
+    <t>I was atired traveling an went online for a reservation,an got an room Immediatley.,Was welcomed warmley,Roim was Very clean,an Quiet,Slept very comfort,checkout wS effecient an prompt,even provided aMoreShow less</t>
+  </si>
+  <si>
+    <t>I was atired traveling an went online for a reservation,an got an room Immediatley.,Was welcomed warmley,Roim was Very clean,an Quiet,Slept very comfort,checkout wS effecient an prompt,even provided aMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r474325028-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>474325028</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding. The wedding party all booked this hotel because it was close to the reception venue. Friendly staff, clean rooms, great variety breakfast, nice variety surrounding restaurants and shopping centers. Clean pool. Great place to stay. Very satisfied MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding. The wedding party all booked this hotel because it was close to the reception venue. Friendly staff, clean rooms, great variety breakfast, nice variety surrounding restaurants and shopping centers. Clean pool. Great place to stay. Very satisfied More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r472819682-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1617,45 @@
     <t>My husband and I wanted a quick get-away that was close to home so we chose this Hampton since it was close to our neighborhood.  The hotel is very modern with plenty of USB and charging ports in the room.  The bed was extremely comfortable and the room was clean and nicely furnished.  We enjoyed our stay so much that we are staying again in another week or so.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r469022727-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>469022727</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Another winner!</t>
+  </si>
+  <si>
+    <t>Loved the courtesy,staff, location, quietness and cleanliness of this new property.My room was huge and heavenly.Wish the canister of water w/ fruit in the lobby didn't always clog, but that's my ONLY criticism.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved the courtesy,staff, location, quietness and cleanliness of this new property.My room was huge and heavenly.Wish the canister of water w/ fruit in the lobby didn't always clog, but that's my ONLY criticism.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r467271091-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>467271091</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Booked again for June</t>
+  </si>
+  <si>
+    <t>We received a great rate the first time we stayed since they are a new Hampton and Dak could hit my son's house from the hotel driveway. The room was comfortable and the staff were very friendly and helpful. They were not busy so we got to extend the check out even later so we could go to Javaman for coffee and crepes with my son and his family.This June will be almost a year so we booked it again for the grandchildren's birthday bash . . .I'll let you know on their 1 year report card.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We received a great rate the first time we stayed since they are a new Hampton and Dak could hit my son's house from the hotel driveway. The room was comfortable and the staff were very friendly and helpful. They were not busy so we got to extend the check out even later so we could go to Javaman for coffee and crepes with my son and his family.This June will be almost a year so we booked it again for the grandchildren's birthday bash . . .I'll let you know on their 1 year report card.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r465861019-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -1104,15 +1713,42 @@
     <t>This hotel is extremely clean and has friendly and welcoming staff. The workout room is incredible, too!  You get delicious and free breakfast, cookies in the afternoon and I look forward to a return visit. Zero complaints from me and I'm really a tough critic!  Can't go wrong staying here!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r463384631-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>463384631</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Car broken into, check-in took long</t>
+  </si>
+  <si>
+    <t>Unfortunate things happen but the staff was little help and there has been zero follow-up after my vehicle was broken into in the parking lot during my stay. Also at check-in I was embarrassed when told my card would not go through as others were waiting, turns out the staff member was not inputting my expiration date in correctly when I told them what my credit card company said they refused the answer. Took quite awhile to figure out and what I told them was the issue actually was the issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r461864105-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>461864105</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay in brand new hotel in middle of Humble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here on a short notice softball tournament.  Great value &amp; nice, new modern hotel ! I would for sure recommend this to anyone who needs to visit anywhere in Humble vicinity. Everything you need except for a pool, but since we went in Feb it wasn't needed.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r461893928-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
     <t>461893928</t>
   </si>
   <si>
-    <t>02/21/2017</t>
-  </si>
-  <si>
     <t>Super friendly service and CLEAN!</t>
   </si>
   <si>
@@ -1149,27 +1785,57 @@
     <t>Room was nice...staff was great.  The only thing I would change are the pillows...they were flat.  There are a lot of eateries in the area.  Even though fm1960 is a busy street, it was still quiet in our room.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r459777116-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>459777116</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Great!!!</t>
+  </si>
+  <si>
+    <t>It was super bowl and a last minute reservation and the hotel was great the customer service was great!! The room was great it was an overall awesome experience from beginning to end we will visit again!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r458562954-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>458562954</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl</t>
+  </si>
+  <si>
+    <t>Excellent excellent excellent place to stay the staff was very friendly the general manager was over-the-top excellent the breakfast was great in the morning the rooms are overwhelmingly clean perfect location very close to the mall if you're into spending money I would highly recommend this one and we will be backThe Smith's MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Excellent excellent excellent place to stay the staff was very friendly the general manager was over-the-top excellent the breakfast was great in the morning the rooms are overwhelmingly clean perfect location very close to the mall if you're into spending money I would highly recommend this one and we will be backThe Smith's More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r458545186-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
     <t>458545186</t>
   </si>
   <si>
-    <t>02/10/2017</t>
-  </si>
-  <si>
     <t>Super Bowl Stay</t>
   </si>
   <si>
     <t>Very clean and very friendly staff. Breakfast was excellent.  Rooms comfortable and spotless. Staff went out of their way to make sure we had everything we  needed.  Printed our return boarding tickets directions to all the Super Bowl activities.  Always greeted us with a smile.Even had  congratulatory Patriot cupcakes for the guests.  Enjoyed our stay very much MoreShow less</t>
   </si>
   <si>
-    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded February 13, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 13, 2017</t>
-  </si>
-  <si>
     <t>Very clean and very friendly staff. Breakfast was excellent.  Rooms comfortable and spotless. Staff went out of their way to make sure we had everything we  needed.  Printed our return boarding tickets directions to all the Super Bowl activities.  Always greeted us with a smile.Even had  congratulatory Patriot cupcakes for the guests.  Enjoyed our stay very much More</t>
   </si>
   <si>
@@ -1219,6 +1885,48 @@
   </si>
   <si>
     <t>Hampton Inn &amp; Suites in Atascocita, Tx. is a new, clean, nice-smelling hotel. Everything was great. Friendly staff, great mattress and pillows, air worked great, nice bathroom... just an overall excellent experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r444582047-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>444582047</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>Waiting for Movers</t>
+  </si>
+  <si>
+    <t>This hotel goes above and beyond. The manager all the way down to the desk clearks. I loved this hotel they treated me and my wife like we were family. Thanks again for everything from the cookies to the great breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ocie J, General Manager at Hampton Inn &amp; Suites Houston / Atascocita, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>This hotel goes above and beyond. The manager all the way down to the desk clearks. I loved this hotel they treated me and my wife like we were family. Thanks again for everything from the cookies to the great breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r444380129-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>444380129</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Ultra Modern</t>
+  </si>
+  <si>
+    <t>This was a new twist for the Hampton. Everything was modern and well laid out. Traffic in the area is difficult but once you figure out how to go behind the hotel and into the  neighborhood to the signals it works well. Very nice hotel and close to dining and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a new twist for the Hampton. Everything was modern and well laid out. Traffic in the area is difficult but once you figure out how to go behind the hotel and into the  neighborhood to the signals it works well. Very nice hotel and close to dining and shopping.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d10758543-r437231844-Hampton_Inn_Suites_Houston_Atascocita-Humble_Texas.html</t>
@@ -1777,22 +2485,22 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1816,7 +2524,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1832,34 +2540,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1883,7 +2591,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1899,43 +2607,43 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1950,7 +2658,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1966,34 +2674,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2017,7 +2725,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2033,37 +2741,37 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>5</v>
@@ -2076,7 +2784,7 @@
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2084,7 +2792,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -2100,34 +2808,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2151,7 +2859,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2167,34 +2875,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
         <v>86</v>
-      </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2218,7 +2926,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -2234,34 +2942,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>91</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="K9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2270,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -2285,7 +2993,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -2301,40 +3009,42 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>97</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>98</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>99</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2346,7 +3056,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
@@ -2362,47 +3072,41 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>101</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>102</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>103</v>
       </c>
-      <c r="L11" t="s">
-        <v>104</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2413,7 +3117,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -2429,62 +3133,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
-      <c r="K12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" t="s">
-        <v>110</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>111</v>
-      </c>
-      <c r="X12" t="s">
-        <v>112</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -2500,7 +3200,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2509,53 +3209,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>119</v>
-      </c>
-      <c r="X13" t="s">
-        <v>120</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -2571,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2580,53 +3276,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>119</v>
-      </c>
-      <c r="X14" t="s">
-        <v>120</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -2642,7 +3324,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2651,25 +3333,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2678,10 +3360,10 @@
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2693,7 +3375,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16">
@@ -2709,7 +3391,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2718,43 +3400,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>119</v>
-      </c>
-      <c r="X16" t="s">
-        <v>120</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -2770,7 +3458,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2779,43 +3467,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
         <v>134</v>
-      </c>
-      <c r="O17" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>119</v>
-      </c>
-      <c r="X17" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2831,7 +3525,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2840,41 +3534,41 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2882,7 +3576,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -2898,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2907,53 +3601,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
         <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>119</v>
-      </c>
-      <c r="X19" t="s">
-        <v>120</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
@@ -2969,7 +3659,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2978,38 +3668,32 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3020,7 +3704,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -3036,7 +3720,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3045,41 +3729,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3087,7 +3767,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -3103,7 +3783,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3112,35 +3792,41 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
       <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3148,7 +3834,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
@@ -3164,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3173,41 +3859,41 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3215,7 +3901,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -3231,7 +3917,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3240,53 +3926,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="N24" t="s">
-        <v>173</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="X24" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
@@ -3302,7 +3988,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3311,25 +3997,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3338,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3350,10 +4036,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s">
+        <v>182</v>
+      </c>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
@@ -3369,7 +4059,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3378,28 +4068,28 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>5</v>
@@ -3408,7 +4098,7 @@
         <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3417,10 +4107,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26" t="s">
+        <v>182</v>
+      </c>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -3436,7 +4130,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3445,53 +4139,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>119</v>
-      </c>
-      <c r="X27" t="s">
-        <v>120</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
@@ -3507,7 +4197,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3516,25 +4206,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3555,10 +4245,14 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X28" t="s">
+        <v>182</v>
+      </c>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
@@ -3574,7 +4268,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3583,25 +4277,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3610,10 +4304,10 @@
         <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3625,7 +4319,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
@@ -3641,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3650,49 +4344,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X30" t="s">
+        <v>182</v>
+      </c>
       <c r="Y30" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
@@ -3708,7 +4396,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3717,25 +4405,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3756,10 +4444,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>181</v>
+      </c>
+      <c r="X31" t="s">
+        <v>182</v>
+      </c>
       <c r="Y31" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
@@ -3775,7 +4467,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3784,25 +4476,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3818,7 +4510,7 @@
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3826,7 +4518,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
@@ -3842,7 +4534,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3851,49 +4543,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>237</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>181</v>
+      </c>
+      <c r="X33" t="s">
+        <v>182</v>
+      </c>
       <c r="Y33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -3909,7 +4595,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3918,41 +4604,41 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3960,7 +4646,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -3976,7 +4662,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3985,37 +4671,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -4025,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>248</v>
+        <v>181</v>
       </c>
       <c r="X35" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36">
@@ -4047,7 +4733,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4056,39 +4742,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="N36" t="s">
+        <v>241</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>256</v>
-      </c>
-      <c r="X36" t="s">
-        <v>257</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -4104,7 +4800,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4113,39 +4809,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>241</v>
+      </c>
+      <c r="O37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="N37" t="s">
-        <v>264</v>
-      </c>
-      <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38">
@@ -4161,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4170,25 +4876,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4209,14 +4915,10 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>270</v>
-      </c>
-      <c r="X38" t="s">
-        <v>271</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
@@ -4232,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4241,30 +4943,38 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4272,14 +4982,10 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>270</v>
-      </c>
-      <c r="X39" t="s">
-        <v>271</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
@@ -4295,7 +5001,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4304,53 +5010,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>4</v>
       </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>270</v>
-      </c>
-      <c r="X40" t="s">
-        <v>271</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41">
@@ -4366,7 +5062,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4375,35 +5071,29 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4415,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="X41" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="Y41" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42">
@@ -4437,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4446,25 +5136,25 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="J42" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>278</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4485,14 +5175,10 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>291</v>
-      </c>
-      <c r="X42" t="s">
-        <v>292</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43">
@@ -4508,7 +5194,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4517,53 +5203,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>291</v>
-      </c>
-      <c r="X43" t="s">
-        <v>292</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44">
@@ -4579,7 +5261,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4588,53 +5270,53 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="J44" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="K44" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="L44" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="O44" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X44" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y44" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45">
@@ -4650,7 +5332,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4659,31 +5341,31 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
@@ -4693,19 +5375,15 @@
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>291</v>
-      </c>
-      <c r="X45" t="s">
-        <v>292</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
@@ -4721,7 +5399,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4730,53 +5408,39 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="O46" t="s">
-        <v>77</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>291</v>
-      </c>
-      <c r="X46" t="s">
-        <v>292</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47">
@@ -4792,7 +5456,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4801,25 +5465,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="J47" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="K47" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="O47" t="s">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4840,14 +5504,10 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>291</v>
-      </c>
-      <c r="X47" t="s">
-        <v>292</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48">
@@ -4863,7 +5523,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4872,32 +5532,38 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="J48" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="K48" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -4908,7 +5574,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
@@ -4924,7 +5590,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4933,25 +5599,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="J49" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="K49" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="O49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4973,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>291</v>
+        <v>181</v>
       </c>
       <c r="X49" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="Y49" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50">
@@ -4995,7 +5661,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5004,32 +5670,38 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="L50" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
       <c r="Q50" t="n">
         <v>5</v>
       </c>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
         <v>5</v>
@@ -5037,14 +5709,10 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>291</v>
-      </c>
-      <c r="X50" t="s">
-        <v>292</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51">
@@ -5060,7 +5728,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5069,31 +5737,35 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="J51" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="O51" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="n">
         <v>5</v>
       </c>
@@ -5104,14 +5776,10 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>291</v>
-      </c>
-      <c r="X51" t="s">
-        <v>292</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52">
@@ -5127,7 +5795,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5136,25 +5804,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="J52" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5175,14 +5843,10 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>291</v>
-      </c>
-      <c r="X52" t="s">
-        <v>292</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53">
@@ -5198,7 +5862,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5207,25 +5871,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="J53" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="O53" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5249,7 +5913,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54">
@@ -5265,7 +5929,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5274,34 +5938,34 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="J54" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="K54" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="L54" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O54" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -5316,7 +5980,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55">
@@ -5332,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5341,25 +6005,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="J55" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="K55" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O55" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5383,7 +6047,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56">
@@ -5399,7 +6063,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5408,25 +6072,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="J56" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="K56" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="L56" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5435,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -5447,14 +6111,10 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>382</v>
-      </c>
-      <c r="X56" t="s">
-        <v>383</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57">
@@ -5470,7 +6130,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5479,31 +6139,35 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="J57" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="L57" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="O57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
       <c r="S57" t="n">
         <v>5</v>
       </c>
@@ -5514,14 +6178,10 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>382</v>
-      </c>
-      <c r="X57" t="s">
-        <v>383</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
@@ -5537,7 +6197,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5546,25 +6206,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="J58" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="K58" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="O58" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5585,14 +6245,10 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>398</v>
-      </c>
-      <c r="X58" t="s">
-        <v>399</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59">
@@ -5608,7 +6264,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5617,39 +6273,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="J59" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
-      </c>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+        <v>278</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60">
@@ -5665,7 +6331,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5674,30 +6340,34 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="J60" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="K60" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="O60" t="s">
-        <v>66</v>
-      </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -5712,7 +6382,2989 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>375</v>
+      </c>
+      <c r="J61" t="s">
+        <v>376</v>
+      </c>
+      <c r="K61" t="s">
+        <v>377</v>
+      </c>
+      <c r="L61" t="s">
+        <v>378</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>344</v>
+      </c>
+      <c r="O61" t="s">
+        <v>64</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>379</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>380</v>
+      </c>
+      <c r="J62" t="s">
+        <v>381</v>
+      </c>
+      <c r="K62" t="s">
+        <v>382</v>
+      </c>
+      <c r="L62" t="s">
+        <v>383</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>344</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>384</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>385</v>
+      </c>
+      <c r="J63" t="s">
+        <v>386</v>
+      </c>
+      <c r="K63" t="s">
+        <v>387</v>
+      </c>
+      <c r="L63" t="s">
+        <v>388</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>344</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>389</v>
+      </c>
+      <c r="X63" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>392</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>393</v>
+      </c>
+      <c r="J64" t="s">
+        <v>394</v>
+      </c>
+      <c r="K64" t="s">
+        <v>395</v>
+      </c>
+      <c r="L64" t="s">
+        <v>396</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>397</v>
+      </c>
+      <c r="X64" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>400</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>401</v>
+      </c>
+      <c r="J65" t="s">
+        <v>402</v>
+      </c>
+      <c r="K65" t="s">
+        <v>403</v>
+      </c>
+      <c r="L65" t="s">
+        <v>404</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>405</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>406</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>407</v>
+      </c>
+      <c r="J66" t="s">
+        <v>408</v>
+      </c>
+      <c r="K66" t="s">
+        <v>409</v>
+      </c>
+      <c r="L66" t="s">
+        <v>410</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>405</v>
+      </c>
+      <c r="O66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>412</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>413</v>
+      </c>
+      <c r="J67" t="s">
+        <v>414</v>
+      </c>
+      <c r="K67" t="s">
+        <v>415</v>
+      </c>
+      <c r="L67" t="s">
+        <v>416</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>405</v>
+      </c>
+      <c r="O67" t="s">
+        <v>70</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>417</v>
+      </c>
+      <c r="X67" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" t="s">
+        <v>422</v>
+      </c>
+      <c r="K68" t="s">
+        <v>423</v>
+      </c>
+      <c r="L68" t="s">
+        <v>424</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>405</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>425</v>
+      </c>
+      <c r="X68" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>428</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>429</v>
+      </c>
+      <c r="J69" t="s">
+        <v>430</v>
+      </c>
+      <c r="K69" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>405</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>425</v>
+      </c>
+      <c r="X69" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>434</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>435</v>
+      </c>
+      <c r="J70" t="s">
+        <v>436</v>
+      </c>
+      <c r="K70" t="s">
+        <v>437</v>
+      </c>
+      <c r="L70" t="s">
+        <v>438</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>405</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>425</v>
+      </c>
+      <c r="X70" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>440</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>441</v>
+      </c>
+      <c r="J71" t="s">
+        <v>442</v>
+      </c>
+      <c r="K71" t="s">
+        <v>443</v>
+      </c>
+      <c r="L71" t="s">
+        <v>444</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>446</v>
+      </c>
+      <c r="X71" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>449</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>450</v>
+      </c>
+      <c r="J72" t="s">
+        <v>442</v>
+      </c>
+      <c r="K72" t="s">
+        <v>451</v>
+      </c>
+      <c r="L72" t="s">
+        <v>452</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>445</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>446</v>
+      </c>
+      <c r="X72" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>454</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>455</v>
+      </c>
+      <c r="J73" t="s">
+        <v>456</v>
+      </c>
+      <c r="K73" t="s">
+        <v>457</v>
+      </c>
+      <c r="L73" t="s">
+        <v>458</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>445</v>
+      </c>
+      <c r="O73" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>446</v>
+      </c>
+      <c r="X73" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>460</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>461</v>
+      </c>
+      <c r="J74" t="s">
+        <v>462</v>
+      </c>
+      <c r="K74" t="s">
+        <v>463</v>
+      </c>
+      <c r="L74" t="s">
+        <v>464</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>445</v>
+      </c>
+      <c r="O74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>446</v>
+      </c>
+      <c r="X74" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>466</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>467</v>
+      </c>
+      <c r="J75" t="s">
+        <v>468</v>
+      </c>
+      <c r="K75" t="s">
+        <v>469</v>
+      </c>
+      <c r="L75" t="s">
+        <v>470</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>445</v>
+      </c>
+      <c r="O75" t="s">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>446</v>
+      </c>
+      <c r="X75" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>472</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>473</v>
+      </c>
+      <c r="J76" t="s">
+        <v>474</v>
+      </c>
+      <c r="K76" t="s">
+        <v>475</v>
+      </c>
+      <c r="L76" t="s">
+        <v>476</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>445</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>446</v>
+      </c>
+      <c r="X76" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>479</v>
+      </c>
+      <c r="J77" t="s">
+        <v>480</v>
+      </c>
+      <c r="K77" t="s">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s">
+        <v>482</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>483</v>
+      </c>
+      <c r="O77" t="s">
+        <v>86</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>446</v>
+      </c>
+      <c r="X77" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>486</v>
+      </c>
+      <c r="J78" t="s">
+        <v>487</v>
+      </c>
+      <c r="K78" t="s">
+        <v>488</v>
+      </c>
+      <c r="L78" t="s">
+        <v>489</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>483</v>
+      </c>
+      <c r="O78" t="s">
+        <v>64</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>446</v>
+      </c>
+      <c r="X78" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>491</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>492</v>
+      </c>
+      <c r="J79" t="s">
+        <v>493</v>
+      </c>
+      <c r="K79" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>483</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>446</v>
+      </c>
+      <c r="X79" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>497</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>498</v>
+      </c>
+      <c r="J80" t="s">
+        <v>499</v>
+      </c>
+      <c r="K80" t="s">
+        <v>500</v>
+      </c>
+      <c r="L80" t="s">
+        <v>501</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>483</v>
+      </c>
+      <c r="O80" t="s">
+        <v>64</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>446</v>
+      </c>
+      <c r="X80" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>503</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>504</v>
+      </c>
+      <c r="J81" t="s">
+        <v>505</v>
+      </c>
+      <c r="K81" t="s">
+        <v>506</v>
+      </c>
+      <c r="L81" t="s">
+        <v>507</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>483</v>
+      </c>
+      <c r="O81" t="s">
+        <v>86</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>446</v>
+      </c>
+      <c r="X81" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>509</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>510</v>
+      </c>
+      <c r="J82" t="s">
+        <v>511</v>
+      </c>
+      <c r="K82" t="s">
+        <v>512</v>
+      </c>
+      <c r="L82" t="s">
+        <v>513</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>483</v>
+      </c>
+      <c r="O82" t="s">
+        <v>278</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>446</v>
+      </c>
+      <c r="X82" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>515</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>516</v>
+      </c>
+      <c r="J83" t="s">
+        <v>517</v>
+      </c>
+      <c r="K83" t="s">
+        <v>518</v>
+      </c>
+      <c r="L83" t="s">
+        <v>519</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>483</v>
+      </c>
+      <c r="O83" t="s">
+        <v>64</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>446</v>
+      </c>
+      <c r="X83" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>521</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>522</v>
+      </c>
+      <c r="J84" t="s">
+        <v>523</v>
+      </c>
+      <c r="K84" t="s">
+        <v>524</v>
+      </c>
+      <c r="L84" t="s">
+        <v>525</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>526</v>
+      </c>
+      <c r="O84" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>527</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>528</v>
+      </c>
+      <c r="J85" t="s">
+        <v>529</v>
+      </c>
+      <c r="K85" t="s">
+        <v>530</v>
+      </c>
+      <c r="L85" t="s">
+        <v>531</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>526</v>
+      </c>
+      <c r="O85" t="s">
+        <v>64</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>446</v>
+      </c>
+      <c r="X85" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>533</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>534</v>
+      </c>
+      <c r="J86" t="s">
+        <v>535</v>
+      </c>
+      <c r="K86" t="s">
+        <v>536</v>
+      </c>
+      <c r="L86" t="s">
+        <v>537</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>526</v>
+      </c>
+      <c r="O86" t="s">
+        <v>86</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>446</v>
+      </c>
+      <c r="X86" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>539</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>540</v>
+      </c>
+      <c r="J87" t="s">
+        <v>541</v>
+      </c>
+      <c r="K87" t="s">
+        <v>542</v>
+      </c>
+      <c r="L87" t="s">
+        <v>543</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>544</v>
+      </c>
+      <c r="O87" t="s">
+        <v>70</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>446</v>
+      </c>
+      <c r="X87" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>546</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>547</v>
+      </c>
+      <c r="J88" t="s">
+        <v>548</v>
+      </c>
+      <c r="K88" t="s">
+        <v>549</v>
+      </c>
+      <c r="L88" t="s">
+        <v>550</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>526</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>446</v>
+      </c>
+      <c r="X88" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>552</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>553</v>
+      </c>
+      <c r="J89" t="s">
+        <v>554</v>
+      </c>
+      <c r="K89" t="s">
+        <v>555</v>
+      </c>
+      <c r="L89" t="s">
+        <v>556</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>557</v>
+      </c>
+      <c r="O89" t="s">
+        <v>64</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>446</v>
+      </c>
+      <c r="X89" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>559</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>560</v>
+      </c>
+      <c r="J90" t="s">
+        <v>561</v>
+      </c>
+      <c r="K90" t="s">
+        <v>562</v>
+      </c>
+      <c r="L90" t="s">
+        <v>563</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>557</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>446</v>
+      </c>
+      <c r="X90" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>565</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>566</v>
+      </c>
+      <c r="J91" t="s">
+        <v>567</v>
+      </c>
+      <c r="K91" t="s">
+        <v>568</v>
+      </c>
+      <c r="L91" t="s">
+        <v>569</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>557</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>570</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>571</v>
+      </c>
+      <c r="J92" t="s">
+        <v>572</v>
+      </c>
+      <c r="K92" t="s">
+        <v>573</v>
+      </c>
+      <c r="L92" t="s">
+        <v>574</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>557</v>
+      </c>
+      <c r="O92" t="s">
+        <v>70</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>575</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>576</v>
+      </c>
+      <c r="J93" t="s">
+        <v>572</v>
+      </c>
+      <c r="K93" t="s">
+        <v>577</v>
+      </c>
+      <c r="L93" t="s">
+        <v>578</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>557</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>579</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>580</v>
+      </c>
+      <c r="J94" t="s">
+        <v>581</v>
+      </c>
+      <c r="K94" t="s">
+        <v>582</v>
+      </c>
+      <c r="L94" t="s">
+        <v>583</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>557</v>
+      </c>
+      <c r="O94" t="s">
+        <v>64</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>584</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>585</v>
+      </c>
+      <c r="J95" t="s">
+        <v>586</v>
+      </c>
+      <c r="K95" t="s">
+        <v>587</v>
+      </c>
+      <c r="L95" t="s">
+        <v>588</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>557</v>
+      </c>
+      <c r="O95" t="s">
+        <v>70</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>589</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>590</v>
+      </c>
+      <c r="J96" t="s">
+        <v>591</v>
+      </c>
+      <c r="K96" t="s">
+        <v>592</v>
+      </c>
+      <c r="L96" t="s">
+        <v>593</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>557</v>
+      </c>
+      <c r="O96" t="s">
+        <v>64</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>594</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>595</v>
+      </c>
+      <c r="J97" t="s">
+        <v>596</v>
+      </c>
+      <c r="K97" t="s">
+        <v>597</v>
+      </c>
+      <c r="L97" t="s">
+        <v>598</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>557</v>
+      </c>
+      <c r="O97" t="s">
+        <v>64</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>599</v>
+      </c>
+      <c r="X97" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>602</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>603</v>
+      </c>
+      <c r="J98" t="s">
+        <v>596</v>
+      </c>
+      <c r="K98" t="s">
+        <v>604</v>
+      </c>
+      <c r="L98" t="s">
+        <v>605</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>557</v>
+      </c>
+      <c r="O98" t="s">
+        <v>70</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>599</v>
+      </c>
+      <c r="X98" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>607</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>608</v>
+      </c>
+      <c r="J99" t="s">
+        <v>609</v>
+      </c>
+      <c r="K99" t="s">
+        <v>610</v>
+      </c>
+      <c r="L99" t="s">
+        <v>611</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>612</v>
+      </c>
+      <c r="O99" t="s">
+        <v>64</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>599</v>
+      </c>
+      <c r="X99" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>614</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>615</v>
+      </c>
+      <c r="J100" t="s">
+        <v>616</v>
+      </c>
+      <c r="K100" t="s">
+        <v>617</v>
+      </c>
+      <c r="L100" t="s">
+        <v>618</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>619</v>
+      </c>
+      <c r="O100" t="s">
+        <v>278</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>620</v>
+      </c>
+      <c r="X100" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>623</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>624</v>
+      </c>
+      <c r="J101" t="s">
+        <v>625</v>
+      </c>
+      <c r="K101" t="s">
+        <v>626</v>
+      </c>
+      <c r="L101" t="s">
+        <v>627</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>619</v>
+      </c>
+      <c r="O101" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>628</v>
+      </c>
+      <c r="X101" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>631</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>632</v>
+      </c>
+      <c r="J102" t="s">
+        <v>633</v>
+      </c>
+      <c r="K102" t="s">
+        <v>634</v>
+      </c>
+      <c r="L102" t="s">
+        <v>635</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>619</v>
+      </c>
+      <c r="O102" t="s">
+        <v>64</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>628</v>
+      </c>
+      <c r="X102" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>637</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>638</v>
+      </c>
+      <c r="J103" t="s">
+        <v>639</v>
+      </c>
+      <c r="K103" t="s">
+        <v>640</v>
+      </c>
+      <c r="L103" t="s">
+        <v>641</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>642</v>
+      </c>
+      <c r="O103" t="s">
+        <v>64</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64910</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>643</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>644</v>
+      </c>
+      <c r="J104" t="s">
+        <v>639</v>
+      </c>
+      <c r="K104" t="s">
+        <v>645</v>
+      </c>
+      <c r="L104" t="s">
+        <v>646</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>642</v>
+      </c>
+      <c r="O104" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
